--- a/testdata/robotfaq/faq_robot.xlsx
+++ b/testdata/robotfaq/faq_robot.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query_faq" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -37,14 +37,6 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -62,23 +54,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -89,13 +69,9 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -370,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -568,7 +544,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C5" sqref="A2:C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -640,7 +616,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>{"data":{"question": "ZL-接口测试222", "categoryId": "0","similarQuestionforms": [{"question": "ZL-接口测试2222-1"}],"answerForms": [{"content": "&lt;div&gt;ZL-测试配置问答对回答2222&lt;/div&gt;"}], "effectiveType": 0,"sourceType": 0, "enable": True, "userId": "11", "robotId": "877"}}</t>
+          <t>{"data":{"question": "嘻嘻哈哈", "categoryId": "0","similarQuestionforms": [{"question": "ZL-接口测试2222-1"}],"answerForms": [{"content": "&lt;div&gt;ZL-测试配置问答对回答2222&lt;/div&gt;"}], "effectiveType": 0,"sourceType": 0, "enable": True, "userId": "11", "robotId": "877"}}</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -824,10 +800,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -863,7 +839,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>{ "ids":"[101570230824828934]"}</t>
+          <t>{ "ids":"[103471277839319045]"}</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -873,52 +849,35 @@
       </c>
       <c r="D2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="57" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>重复删除</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>{ "ids":"[101570230824828934]"}</t>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>错参-ids为空</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{"ids": ""}</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>code-1214</t>
+          <t>code-1100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>错参-ids为空</t>
+          <t>缺参-ids缺少</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{"ids": ""}</t>
+          <t>{"keys": ""}</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>code-1100</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>缺参-ids缺少</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>{"keys": ""}</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>code-1100</t>
         </is>
@@ -938,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1011,7 +970,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>{"robotId": "877", "userId": "11","question": "啊哈哈哈哈哈哈哈哈安安大叔","size": 1}</t>
+          <t>{"robotId": "877", "userId": "11","question": "5555555555555555666","size": 1}</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1039,7 +998,7 @@
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="96.75" r="6" thickBot="1">
+    <row customHeight="1" ht="96.75" r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>错参-userId为空</t>
@@ -1050,14 +1009,14 @@
           <t>{"robotId": "877", "userId": "","question": "没有相似问题","size": 1}</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>code-1100</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="96.75" r="7" thickTop="1">
+    <row customHeight="1" ht="96.75" r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>错参-question为空</t>
